--- a/指令集与编码方案/V1.0 RV32I+M+F指令编码方案（手册示例）.xlsx
+++ b/指令集与编码方案/V1.0 RV32I+M+F指令编码方案（手册示例）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cxl/Desktop/RiscV-Pipeline-BranchPrediction-DynamicScheduling-CPU/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cxl/Desktop/RiscV-Pipeline-BranchPrediction-DynamicScheduling-CPU/指令集与编码方案/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64448C7C-BB5F-DD41-BE5D-DFD8BC3E4646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429DAF72-0056-4D45-9685-16D50A9F8A8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,14 +397,6 @@
   </si>
   <si>
     <t>系统调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读循环前半段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1090,6 +1082,14 @@
   </si>
   <si>
     <t>CINFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读时钟前半段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1755,6 +1755,36 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1764,6 +1794,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1798,63 +1855,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -2146,8 +2146,8 @@
   <dimension ref="A1:AX76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I48" sqref="I48:T48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A60" sqref="A60:A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30"/>
@@ -2301,22 +2301,22 @@
       <c r="AX1"/>
     </row>
     <row r="2" spans="1:50" ht="40" customHeight="1" thickBot="1">
-      <c r="A2" s="87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
+      <c r="A2" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:50" ht="40" customHeight="1">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="61" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -2337,27 +2337,27 @@
       <c r="H3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="62"/>
+      <c r="I3" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="72"/>
       <c r="Z3" s="25">
         <v>0</v>
       </c>
@@ -2367,13 +2367,13 @@
       <c r="AB3" s="27">
         <v>0</v>
       </c>
-      <c r="AC3" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="62"/>
+      <c r="AC3" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="72"/>
       <c r="AH3" s="20">
         <v>0</v>
       </c>
@@ -2400,7 +2400,7 @@
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="62"/>
       <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
@@ -2419,27 +2419,27 @@
       <c r="H4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="62"/>
+      <c r="I4" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="72"/>
       <c r="Z4" s="28">
         <v>0</v>
       </c>
@@ -2449,13 +2449,13 @@
       <c r="AB4" s="29">
         <v>1</v>
       </c>
-      <c r="AC4" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AG4" s="62"/>
+      <c r="AC4" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="72"/>
       <c r="AH4" s="20">
         <v>0</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="89"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="7" t="s">
         <v>33</v>
       </c>
@@ -2501,27 +2501,27 @@
       <c r="H5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="62"/>
+      <c r="I5" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="69"/>
+      <c r="U5" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="72"/>
       <c r="Z5" s="28">
         <v>0</v>
       </c>
@@ -2531,13 +2531,13 @@
       <c r="AB5" s="29">
         <v>0</v>
       </c>
-      <c r="AC5" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="62"/>
+      <c r="AC5" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="71"/>
+      <c r="AE5" s="71"/>
+      <c r="AF5" s="71"/>
+      <c r="AG5" s="72"/>
       <c r="AH5" s="20">
         <v>0</v>
       </c>
@@ -2564,7 +2564,7 @@
       <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="89"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="7" t="s">
         <v>85</v>
       </c>
@@ -2583,27 +2583,27 @@
       <c r="H6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="62"/>
+      <c r="I6" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="72"/>
       <c r="Z6" s="28">
         <v>1</v>
       </c>
@@ -2613,13 +2613,13 @@
       <c r="AB6" s="29">
         <v>0</v>
       </c>
-      <c r="AC6" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="62"/>
+      <c r="AC6" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
+      <c r="AG6" s="72"/>
       <c r="AH6" s="20">
         <v>0</v>
       </c>
@@ -2646,7 +2646,7 @@
       <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="90"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="11" t="s">
         <v>86</v>
       </c>
@@ -2665,27 +2665,27 @@
       <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="62"/>
+      <c r="I7" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="71"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="72"/>
       <c r="Z7" s="30">
         <v>1</v>
       </c>
@@ -2695,13 +2695,13 @@
       <c r="AB7" s="32">
         <v>1</v>
       </c>
-      <c r="AC7" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="62"/>
+      <c r="AC7" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD7" s="71"/>
+      <c r="AE7" s="71"/>
+      <c r="AF7" s="71"/>
+      <c r="AG7" s="72"/>
       <c r="AH7" s="20">
         <v>0</v>
       </c>
@@ -2728,7 +2728,7 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="61" t="s">
         <v>2</v>
       </c>
       <c r="C8" s="14" t="s">
@@ -2749,29 +2749,29 @@
       <c r="H8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="60" t="s">
+      <c r="I8" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
+      <c r="Q8" s="71"/>
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
       <c r="Z8" s="25">
         <v>0</v>
       </c>
@@ -2781,13 +2781,13 @@
       <c r="AB8" s="27">
         <v>0</v>
       </c>
-      <c r="AC8" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD8" s="61"/>
-      <c r="AE8" s="61"/>
-      <c r="AF8" s="61"/>
-      <c r="AG8" s="62"/>
+      <c r="AC8" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="72"/>
       <c r="AH8" s="20">
         <v>0</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="89"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="7" t="s">
         <v>41</v>
       </c>
@@ -2833,29 +2833,29 @@
       <c r="H9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="60" t="s">
+      <c r="I9" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
       <c r="Z9" s="28">
         <v>0</v>
       </c>
@@ -2865,13 +2865,13 @@
       <c r="AB9" s="29">
         <v>1</v>
       </c>
-      <c r="AC9" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD9" s="61"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="61"/>
-      <c r="AG9" s="62"/>
+      <c r="AC9" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="71"/>
+      <c r="AF9" s="71"/>
+      <c r="AG9" s="72"/>
       <c r="AH9" s="20">
         <v>0</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="90"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
@@ -2917,29 +2917,29 @@
       <c r="H10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="60" t="s">
+      <c r="I10" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
       <c r="Z10" s="35">
         <v>0</v>
       </c>
@@ -2949,13 +2949,13 @@
       <c r="AB10" s="37">
         <v>0</v>
       </c>
-      <c r="AC10" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD10" s="61"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="61"/>
-      <c r="AG10" s="62"/>
+      <c r="AC10" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="72"/>
       <c r="AH10" s="20">
         <v>0</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="61" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="14" t="s">
@@ -3024,20 +3024,20 @@
       <c r="O11" s="22">
         <v>0</v>
       </c>
-      <c r="P11" s="60" t="s">
+      <c r="P11" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
       <c r="Z11" s="25">
         <v>0</v>
       </c>
@@ -3047,13 +3047,13 @@
       <c r="AB11" s="27">
         <v>1</v>
       </c>
-      <c r="AC11" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD11" s="61"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="62"/>
+      <c r="AC11" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="72"/>
       <c r="AH11" s="20">
         <v>0</v>
       </c>
@@ -3080,7 +3080,7 @@
       <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="89"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="7" t="s">
         <v>48</v>
       </c>
@@ -3120,20 +3120,20 @@
       <c r="O12" s="22">
         <v>0</v>
       </c>
-      <c r="P12" s="60" t="s">
+      <c r="P12" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
+      <c r="Q12" s="71"/>
+      <c r="R12" s="71"/>
+      <c r="S12" s="71"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="71"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="71"/>
+      <c r="Y12" s="71"/>
       <c r="Z12" s="28">
         <v>1</v>
       </c>
@@ -3143,13 +3143,13 @@
       <c r="AB12" s="29">
         <v>1</v>
       </c>
-      <c r="AC12" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="61"/>
-      <c r="AG12" s="62"/>
+      <c r="AC12" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD12" s="71"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="71"/>
+      <c r="AG12" s="72"/>
       <c r="AH12" s="20">
         <v>0</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="89"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="7" t="s">
         <v>49</v>
       </c>
@@ -3216,20 +3216,20 @@
       <c r="O13" s="22">
         <v>0</v>
       </c>
-      <c r="P13" s="60" t="s">
+      <c r="P13" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
       <c r="Z13" s="35">
         <v>1</v>
       </c>
@@ -3239,13 +3239,13 @@
       <c r="AB13" s="37">
         <v>1</v>
       </c>
-      <c r="AC13" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD13" s="61"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="61"/>
-      <c r="AG13" s="62"/>
+      <c r="AC13" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD13" s="71"/>
+      <c r="AE13" s="71"/>
+      <c r="AF13" s="71"/>
+      <c r="AG13" s="72"/>
       <c r="AH13" s="20">
         <v>0</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="89"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="7" t="s">
         <v>84</v>
       </c>
@@ -3312,20 +3312,20 @@
       <c r="O14" s="21">
         <v>0</v>
       </c>
-      <c r="P14" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
+      <c r="P14" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
       <c r="Z14" s="25">
         <v>0</v>
       </c>
@@ -3335,13 +3335,13 @@
       <c r="AB14" s="27">
         <v>1</v>
       </c>
-      <c r="AC14" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="62"/>
+      <c r="AC14" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="71"/>
+      <c r="AF14" s="71"/>
+      <c r="AG14" s="72"/>
       <c r="AH14" s="20">
         <v>0</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="89"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="7" t="s">
         <v>83</v>
       </c>
@@ -3408,20 +3408,20 @@
       <c r="O15" s="21">
         <v>0</v>
       </c>
-      <c r="P15" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
+      <c r="P15" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
       <c r="Z15" s="28">
         <v>1</v>
       </c>
@@ -3431,13 +3431,13 @@
       <c r="AB15" s="29">
         <v>1</v>
       </c>
-      <c r="AC15" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD15" s="61"/>
-      <c r="AE15" s="61"/>
-      <c r="AF15" s="61"/>
-      <c r="AG15" s="62"/>
+      <c r="AC15" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="71"/>
+      <c r="AF15" s="71"/>
+      <c r="AG15" s="72"/>
       <c r="AH15" s="20">
         <v>0</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="90"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="11" t="s">
         <v>82</v>
       </c>
@@ -3504,20 +3504,20 @@
       <c r="O16" s="36">
         <v>0</v>
       </c>
-      <c r="P16" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
+      <c r="P16" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
       <c r="Z16" s="30">
         <v>1</v>
       </c>
@@ -3527,13 +3527,13 @@
       <c r="AB16" s="32">
         <v>1</v>
       </c>
-      <c r="AC16" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD16" s="61"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="61"/>
-      <c r="AG16" s="62"/>
+      <c r="AC16" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="72"/>
       <c r="AH16" s="20">
         <v>0</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="61" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -3602,20 +3602,20 @@
       <c r="O17" s="22">
         <v>0</v>
       </c>
-      <c r="P17" s="60" t="s">
+      <c r="P17" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="62"/>
-      <c r="U17" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
       <c r="Z17" s="40">
         <v>0</v>
       </c>
@@ -3625,13 +3625,13 @@
       <c r="AB17" s="42">
         <v>0</v>
       </c>
-      <c r="AC17" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD17" s="61"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="61"/>
-      <c r="AG17" s="62"/>
+      <c r="AC17" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD17" s="71"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="72"/>
       <c r="AH17" s="20">
         <v>0</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="89"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="7" t="s">
         <v>56</v>
       </c>
@@ -3698,20 +3698,20 @@
       <c r="O18" s="22">
         <v>0</v>
       </c>
-      <c r="P18" s="60" t="s">
+      <c r="P18" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
       <c r="Z18" s="40">
         <v>0</v>
       </c>
@@ -3721,13 +3721,13 @@
       <c r="AB18" s="42">
         <v>0</v>
       </c>
-      <c r="AC18" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD18" s="61"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="62"/>
+      <c r="AC18" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD18" s="71"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="72"/>
       <c r="AH18" s="20">
         <v>0</v>
       </c>
@@ -3754,7 +3754,7 @@
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="89"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="7" t="s">
         <v>81</v>
       </c>
@@ -3773,27 +3773,27 @@
       <c r="H19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="62"/>
+      <c r="I19" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="72"/>
       <c r="Z19" s="20">
         <v>0</v>
       </c>
@@ -3803,13 +3803,13 @@
       <c r="AB19" s="22">
         <v>0</v>
       </c>
-      <c r="AC19" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD19" s="61"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="61"/>
-      <c r="AG19" s="62"/>
+      <c r="AC19" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="72"/>
       <c r="AH19" s="20">
         <v>0</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="89"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="7" t="s">
         <v>58</v>
       </c>
@@ -3853,35 +3853,35 @@
         <v>29</v>
       </c>
       <c r="H20" s="9"/>
-      <c r="I20" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD20" s="61"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="61"/>
-      <c r="AG20" s="62"/>
+      <c r="I20" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="72"/>
       <c r="AH20" s="20">
         <v>0</v>
       </c>
@@ -3908,7 +3908,7 @@
       <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="90"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="15" t="s">
         <v>59</v>
       </c>
@@ -3925,35 +3925,35 @@
         <v>29</v>
       </c>
       <c r="H21" s="13"/>
-      <c r="I21" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="76"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="84"/>
-      <c r="AC21" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD21" s="61"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="62"/>
+      <c r="I21" s="67" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="71"/>
+      <c r="AF21" s="71"/>
+      <c r="AG21" s="72"/>
       <c r="AH21" s="20">
         <v>0</v>
       </c>
@@ -3976,14 +3976,14 @@
         <v>1</v>
       </c>
       <c r="AO21" s="48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:41" ht="40" customHeight="1">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="61" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -3993,7 +3993,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>27</v>
@@ -4025,20 +4025,20 @@
       <c r="O22" s="22">
         <v>0</v>
       </c>
-      <c r="P22" s="60" t="s">
+      <c r="P22" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
       <c r="Z22" s="20">
         <v>1</v>
       </c>
@@ -4048,13 +4048,13 @@
       <c r="AB22" s="50">
         <v>0</v>
       </c>
-      <c r="AC22" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD22" s="61"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="62"/>
+      <c r="AC22" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="71"/>
+      <c r="AF22" s="71"/>
+      <c r="AG22" s="72"/>
       <c r="AH22" s="20">
         <v>0</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="89"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="7" t="s">
         <v>66</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>45</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>27</v>
@@ -4121,20 +4121,20 @@
       <c r="O23" s="22">
         <v>0</v>
       </c>
-      <c r="P23" s="60" t="s">
+      <c r="P23" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
       <c r="Z23" s="20">
         <v>1</v>
       </c>
@@ -4144,13 +4144,13 @@
       <c r="AB23" s="50">
         <v>0</v>
       </c>
-      <c r="AC23" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD23" s="61"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="61"/>
-      <c r="AG23" s="62"/>
+      <c r="AC23" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD23" s="71"/>
+      <c r="AE23" s="71"/>
+      <c r="AF23" s="71"/>
+      <c r="AG23" s="72"/>
       <c r="AH23" s="20">
         <v>0</v>
       </c>
@@ -4177,7 +4177,7 @@
       <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="89"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="7" t="s">
         <v>67</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>27</v>
@@ -4217,20 +4217,20 @@
       <c r="O24" s="22">
         <v>0</v>
       </c>
-      <c r="P24" s="60" t="s">
+      <c r="P24" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
       <c r="Z24" s="38">
         <v>1</v>
       </c>
@@ -4240,13 +4240,13 @@
       <c r="AB24" s="51">
         <v>1</v>
       </c>
-      <c r="AC24" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD24" s="61"/>
-      <c r="AE24" s="61"/>
-      <c r="AF24" s="61"/>
-      <c r="AG24" s="62"/>
+      <c r="AC24" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD24" s="71"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="72"/>
       <c r="AH24" s="20">
         <v>0</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="89"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="7" t="s">
         <v>80</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>27</v>
@@ -4292,27 +4292,27 @@
       <c r="H25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="77"/>
-      <c r="U25" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
+      <c r="I25" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
       <c r="Z25" s="25">
         <v>1</v>
       </c>
@@ -4322,13 +4322,13 @@
       <c r="AB25" s="27">
         <v>0</v>
       </c>
-      <c r="AC25" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD25" s="61"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="61"/>
-      <c r="AG25" s="62"/>
+      <c r="AC25" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="71"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="72"/>
       <c r="AH25" s="20">
         <v>0</v>
       </c>
@@ -4355,7 +4355,7 @@
       <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="89"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="7" t="s">
         <v>79</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>27</v>
@@ -4374,27 +4374,27 @@
       <c r="H26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="77"/>
-      <c r="U26" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V26" s="61"/>
-      <c r="W26" s="61"/>
-      <c r="X26" s="61"/>
-      <c r="Y26" s="61"/>
+      <c r="I26" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
       <c r="Z26" s="28">
         <v>1</v>
       </c>
@@ -4404,13 +4404,13 @@
       <c r="AB26" s="29">
         <v>0</v>
       </c>
-      <c r="AC26" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD26" s="61"/>
-      <c r="AE26" s="61"/>
-      <c r="AF26" s="61"/>
-      <c r="AG26" s="62"/>
+      <c r="AC26" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD26" s="71"/>
+      <c r="AE26" s="71"/>
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="72"/>
       <c r="AH26" s="20">
         <v>0</v>
       </c>
@@ -4437,7 +4437,7 @@
       <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="89"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="7" t="s">
         <v>78</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>27</v>
@@ -4456,27 +4456,27 @@
       <c r="H27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="76"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V27" s="61"/>
-      <c r="W27" s="61"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="61"/>
+      <c r="I27" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
       <c r="Z27" s="30">
         <v>1</v>
       </c>
@@ -4486,13 +4486,13 @@
       <c r="AB27" s="32">
         <v>1</v>
       </c>
-      <c r="AC27" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD27" s="61"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="61"/>
-      <c r="AG27" s="62"/>
+      <c r="AC27" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="71"/>
+      <c r="AG27" s="72"/>
       <c r="AH27" s="20">
         <v>0</v>
       </c>
@@ -4519,7 +4519,7 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="61" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -4529,7 +4529,7 @@
         <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>27</v>
@@ -4561,20 +4561,20 @@
       <c r="O28" s="22">
         <v>0</v>
       </c>
-      <c r="P28" s="60" t="s">
+      <c r="P28" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V28" s="61"/>
-      <c r="W28" s="61"/>
-      <c r="X28" s="61"/>
-      <c r="Y28" s="61"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
       <c r="Z28" s="40">
         <v>0</v>
       </c>
@@ -4584,13 +4584,13 @@
       <c r="AB28" s="52">
         <v>0</v>
       </c>
-      <c r="AC28" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD28" s="61"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="61"/>
-      <c r="AG28" s="62"/>
+      <c r="AC28" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD28" s="71"/>
+      <c r="AE28" s="71"/>
+      <c r="AF28" s="71"/>
+      <c r="AG28" s="72"/>
       <c r="AH28" s="20">
         <v>0</v>
       </c>
@@ -4617,7 +4617,7 @@
       <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="89"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="7" t="s">
         <v>77</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>45</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>27</v>
@@ -4657,20 +4657,20 @@
       <c r="O29" s="22">
         <v>0</v>
       </c>
-      <c r="P29" s="60" t="s">
+      <c r="P29" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V29" s="61"/>
-      <c r="W29" s="61"/>
-      <c r="X29" s="61"/>
-      <c r="Y29" s="61"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
       <c r="Z29" s="20">
         <v>0</v>
       </c>
@@ -4680,13 +4680,13 @@
       <c r="AB29" s="46">
         <v>1</v>
       </c>
-      <c r="AC29" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD29" s="61"/>
-      <c r="AE29" s="61"/>
-      <c r="AF29" s="61"/>
-      <c r="AG29" s="62"/>
+      <c r="AC29" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD29" s="71"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="72"/>
       <c r="AH29" s="20">
         <v>0</v>
       </c>
@@ -4713,7 +4713,7 @@
       <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="89"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="7" t="s">
         <v>76</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>27</v>
@@ -4732,27 +4732,27 @@
       <c r="H30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V30" s="61"/>
-      <c r="W30" s="61"/>
-      <c r="X30" s="61"/>
-      <c r="Y30" s="61"/>
+      <c r="I30" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
       <c r="Z30" s="25">
         <v>0</v>
       </c>
@@ -4762,13 +4762,13 @@
       <c r="AB30" s="27">
         <v>0</v>
       </c>
-      <c r="AC30" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD30" s="61"/>
-      <c r="AE30" s="61"/>
-      <c r="AF30" s="61"/>
-      <c r="AG30" s="62"/>
+      <c r="AC30" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="72"/>
       <c r="AH30" s="20">
         <v>0</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="A31" s="10">
         <v>29</v>
       </c>
-      <c r="B31" s="90"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="11" t="s">
         <v>75</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>27</v>
@@ -4814,27 +4814,27 @@
       <c r="H31" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="76"/>
-      <c r="S31" s="76"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
+      <c r="I31" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="68"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="69"/>
+      <c r="U31" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
       <c r="Z31" s="35">
         <v>0</v>
       </c>
@@ -4844,13 +4844,13 @@
       <c r="AB31" s="37">
         <v>1</v>
       </c>
-      <c r="AC31" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD31" s="61"/>
-      <c r="AE31" s="61"/>
-      <c r="AF31" s="61"/>
-      <c r="AG31" s="62"/>
+      <c r="AC31" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="72"/>
       <c r="AH31" s="20">
         <v>0</v>
       </c>
@@ -4877,7 +4877,7 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="61" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="14" t="s">
@@ -4887,7 +4887,7 @@
         <v>37</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>28</v>
@@ -4899,47 +4899,47 @@
         <v>29</v>
       </c>
       <c r="I32" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="J32" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="26">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="J32" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V32" s="61"/>
-      <c r="W32" s="61"/>
-      <c r="X32" s="61"/>
-      <c r="Y32" s="61"/>
-      <c r="Z32" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="26">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="27">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD32" s="61"/>
-      <c r="AE32" s="61"/>
-      <c r="AF32" s="62"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="71"/>
+      <c r="AF32" s="72"/>
       <c r="AG32" s="50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AH32" s="20">
         <v>1</v>
@@ -4967,7 +4967,7 @@
       <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="89"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="7" t="s">
         <v>70</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>37</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>28</v>
@@ -4987,47 +4987,47 @@
         <v>29</v>
       </c>
       <c r="I33" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="J33" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="J33" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="77"/>
-      <c r="P33" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V33" s="61"/>
-      <c r="W33" s="61"/>
-      <c r="X33" s="61"/>
-      <c r="Y33" s="61"/>
-      <c r="Z33" s="28">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD33" s="61"/>
-      <c r="AE33" s="61"/>
-      <c r="AF33" s="62"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="71"/>
+      <c r="AF33" s="72"/>
       <c r="AG33" s="50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AH33" s="20">
         <v>1</v>
@@ -5055,7 +5055,7 @@
       <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="89"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="7" t="s">
         <v>71</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>37</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>28</v>
@@ -5075,47 +5075,47 @@
         <v>29</v>
       </c>
       <c r="I34" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="J34" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="69"/>
+      <c r="P34" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="J34" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V34" s="61"/>
-      <c r="W34" s="61"/>
-      <c r="X34" s="61"/>
-      <c r="Y34" s="61"/>
-      <c r="Z34" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD34" s="61"/>
-      <c r="AE34" s="61"/>
-      <c r="AF34" s="62"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="72"/>
       <c r="AG34" s="50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AH34" s="20">
         <v>1</v>
@@ -5143,7 +5143,7 @@
       <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="89"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="7" t="s">
         <v>72</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>37</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>28</v>
@@ -5163,47 +5163,47 @@
         <v>29</v>
       </c>
       <c r="I35" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="J35" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="J35" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V35" s="61"/>
-      <c r="W35" s="61"/>
-      <c r="X35" s="61"/>
-      <c r="Y35" s="61"/>
-      <c r="Z35" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="29">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD35" s="61"/>
-      <c r="AE35" s="61"/>
-      <c r="AF35" s="62"/>
+      <c r="AD35" s="71"/>
+      <c r="AE35" s="71"/>
+      <c r="AF35" s="72"/>
       <c r="AG35" s="50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AH35" s="20">
         <v>1</v>
@@ -5231,7 +5231,7 @@
       <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="89"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="7" t="s">
         <v>73</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>37</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>28</v>
@@ -5251,47 +5251,47 @@
         <v>29</v>
       </c>
       <c r="I36" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="28">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="J36" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V36" s="61"/>
-      <c r="W36" s="61"/>
-      <c r="X36" s="61"/>
-      <c r="Y36" s="61"/>
-      <c r="Z36" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="21">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD36" s="61"/>
-      <c r="AE36" s="61"/>
-      <c r="AF36" s="62"/>
+      <c r="AD36" s="71"/>
+      <c r="AE36" s="71"/>
+      <c r="AF36" s="72"/>
       <c r="AG36" s="50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AH36" s="20">
         <v>1</v>
@@ -5319,7 +5319,7 @@
       <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="89"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="7" t="s">
         <v>74</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>37</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>28</v>
@@ -5339,47 +5339,47 @@
         <v>29</v>
       </c>
       <c r="I37" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="J37" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V37" s="71"/>
+      <c r="W37" s="71"/>
+      <c r="X37" s="71"/>
+      <c r="Y37" s="71"/>
+      <c r="Z37" s="30">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="31">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="32">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="J37" s="75" t="s">
-        <v>160</v>
-      </c>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="76"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="77"/>
-      <c r="P37" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V37" s="61"/>
-      <c r="W37" s="61"/>
-      <c r="X37" s="61"/>
-      <c r="Y37" s="61"/>
-      <c r="Z37" s="30">
-        <v>1</v>
-      </c>
-      <c r="AA37" s="31">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="32">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD37" s="61"/>
-      <c r="AE37" s="61"/>
-      <c r="AF37" s="62"/>
+      <c r="AD37" s="71"/>
+      <c r="AE37" s="71"/>
+      <c r="AF37" s="72"/>
       <c r="AG37" s="50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AH37" s="20">
         <v>1</v>
@@ -5407,17 +5407,17 @@
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="61" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>27</v>
@@ -5427,81 +5427,81 @@
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="69"/>
+      <c r="T38" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="J38" s="75" t="s">
+      <c r="U38" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="76"/>
-      <c r="S38" s="77"/>
-      <c r="T38" s="50" t="s">
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="74"/>
+      <c r="AC38" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD38" s="71"/>
+      <c r="AE38" s="71"/>
+      <c r="AF38" s="71"/>
+      <c r="AG38" s="72"/>
+      <c r="AH38" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="21">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="21">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="22">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="U38" s="75" t="s">
+      <c r="AP38" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="V38" s="76"/>
-      <c r="W38" s="76"/>
-      <c r="X38" s="76"/>
-      <c r="Y38" s="76"/>
-      <c r="Z38" s="85"/>
-      <c r="AA38" s="85"/>
-      <c r="AB38" s="86"/>
-      <c r="AC38" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD38" s="61"/>
-      <c r="AE38" s="61"/>
-      <c r="AF38" s="61"/>
-      <c r="AG38" s="62"/>
-      <c r="AH38" s="20">
-        <v>1</v>
-      </c>
-      <c r="AI38" s="21">
-        <v>1</v>
-      </c>
-      <c r="AJ38" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="21">
-        <v>1</v>
-      </c>
-      <c r="AM38" s="21">
-        <v>1</v>
-      </c>
-      <c r="AN38" s="22">
-        <v>1</v>
-      </c>
-      <c r="AO38" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP38" s="83" t="s">
-        <v>154</v>
-      </c>
     </row>
-    <row r="39" spans="1:43" ht="40" customHeight="1">
+    <row r="39" spans="1:43">
       <c r="A39" s="10">
         <v>37</v>
       </c>
-      <c r="B39" s="90"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>27</v>
@@ -5512,27 +5512,27 @@
       <c r="H39" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I39" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="J39" s="76"/>
-      <c r="K39" s="76"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="76"/>
-      <c r="S39" s="76"/>
-      <c r="T39" s="77"/>
-      <c r="U39" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V39" s="61"/>
-      <c r="W39" s="61"/>
-      <c r="X39" s="61"/>
-      <c r="Y39" s="61"/>
+      <c r="I39" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V39" s="71"/>
+      <c r="W39" s="71"/>
+      <c r="X39" s="71"/>
+      <c r="Y39" s="71"/>
       <c r="Z39" s="20">
         <v>0</v>
       </c>
@@ -5542,13 +5542,13 @@
       <c r="AB39" s="22">
         <v>0</v>
       </c>
-      <c r="AC39" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD39" s="61"/>
-      <c r="AE39" s="61"/>
-      <c r="AF39" s="61"/>
-      <c r="AG39" s="62"/>
+      <c r="AC39" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD39" s="71"/>
+      <c r="AE39" s="71"/>
+      <c r="AF39" s="71"/>
+      <c r="AG39" s="72"/>
       <c r="AH39" s="20">
         <v>1</v>
       </c>
@@ -5571,124 +5571,118 @@
         <v>1</v>
       </c>
       <c r="AO39" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="AP39" s="83"/>
+        <v>153</v>
+      </c>
+      <c r="AP39" s="75"/>
       <c r="AQ39" s="49" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:43" ht="40" hidden="1" customHeight="1">
-      <c r="A40" s="3">
-        <v>38</v>
-      </c>
-      <c r="B40" s="88" t="s">
+    <row r="40" spans="1:43">
+      <c r="A40" s="3"/>
+      <c r="B40" s="61" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="5"/>
-      <c r="I40" s="81" t="s">
-        <v>162</v>
-      </c>
-      <c r="J40" s="82"/>
-      <c r="K40" s="82"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="82"/>
-      <c r="X40" s="82"/>
-      <c r="Y40" s="82"/>
-      <c r="Z40" s="82"/>
-      <c r="AA40" s="82"/>
-      <c r="AB40" s="82"/>
-      <c r="AC40" s="82"/>
-      <c r="AD40" s="82"/>
-      <c r="AE40" s="82"/>
-      <c r="AF40" s="82"/>
-      <c r="AG40" s="82"/>
-      <c r="AH40" s="82"/>
-      <c r="AI40" s="82"/>
-      <c r="AJ40" s="82"/>
-      <c r="AK40" s="82"/>
-      <c r="AL40" s="82"/>
-      <c r="AM40" s="82"/>
-      <c r="AN40" s="82"/>
+      <c r="I40" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="J40" s="78"/>
+      <c r="K40" s="78"/>
+      <c r="L40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="78"/>
+      <c r="R40" s="78"/>
+      <c r="S40" s="78"/>
+      <c r="T40" s="78"/>
+      <c r="U40" s="78"/>
+      <c r="V40" s="78"/>
+      <c r="W40" s="78"/>
+      <c r="X40" s="78"/>
+      <c r="Y40" s="78"/>
+      <c r="Z40" s="78"/>
+      <c r="AA40" s="78"/>
+      <c r="AB40" s="78"/>
+      <c r="AC40" s="78"/>
+      <c r="AD40" s="78"/>
+      <c r="AE40" s="78"/>
+      <c r="AF40" s="78"/>
+      <c r="AG40" s="78"/>
+      <c r="AH40" s="78"/>
+      <c r="AI40" s="78"/>
+      <c r="AJ40" s="78"/>
+      <c r="AK40" s="78"/>
+      <c r="AL40" s="78"/>
+      <c r="AM40" s="78"/>
+      <c r="AN40" s="78"/>
     </row>
-    <row r="41" spans="1:43" ht="40" hidden="1" customHeight="1">
-      <c r="A41" s="10">
-        <v>39</v>
-      </c>
-      <c r="B41" s="90"/>
+    <row r="41" spans="1:43">
+      <c r="A41" s="10"/>
+      <c r="B41" s="63"/>
       <c r="C41" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="81" t="s">
-        <v>162</v>
-      </c>
-      <c r="J41" s="82"/>
-      <c r="K41" s="82"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="82"/>
-      <c r="U41" s="82"/>
-      <c r="V41" s="82"/>
-      <c r="W41" s="82"/>
-      <c r="X41" s="82"/>
-      <c r="Y41" s="82"/>
-      <c r="Z41" s="82"/>
-      <c r="AA41" s="82"/>
-      <c r="AB41" s="82"/>
-      <c r="AC41" s="82"/>
-      <c r="AD41" s="82"/>
-      <c r="AE41" s="82"/>
-      <c r="AF41" s="82"/>
-      <c r="AG41" s="82"/>
-      <c r="AH41" s="82"/>
-      <c r="AI41" s="82"/>
-      <c r="AJ41" s="82"/>
-      <c r="AK41" s="82"/>
-      <c r="AL41" s="82"/>
-      <c r="AM41" s="82"/>
-      <c r="AN41" s="82"/>
+      <c r="I41" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
+      <c r="Q41" s="78"/>
+      <c r="R41" s="78"/>
+      <c r="S41" s="78"/>
+      <c r="T41" s="78"/>
+      <c r="U41" s="78"/>
+      <c r="V41" s="78"/>
+      <c r="W41" s="78"/>
+      <c r="X41" s="78"/>
+      <c r="Y41" s="78"/>
+      <c r="Z41" s="78"/>
+      <c r="AA41" s="78"/>
+      <c r="AB41" s="78"/>
+      <c r="AC41" s="78"/>
+      <c r="AD41" s="78"/>
+      <c r="AE41" s="78"/>
+      <c r="AF41" s="78"/>
+      <c r="AG41" s="78"/>
+      <c r="AH41" s="78"/>
+      <c r="AI41" s="78"/>
+      <c r="AJ41" s="78"/>
+      <c r="AK41" s="78"/>
+      <c r="AL41" s="78"/>
+      <c r="AM41" s="78"/>
+      <c r="AN41" s="78"/>
     </row>
-    <row r="42" spans="1:43" ht="40" hidden="1" customHeight="1">
-      <c r="A42" s="3">
-        <v>38</v>
-      </c>
-      <c r="B42" s="88" t="s">
+    <row r="42" spans="1:43">
+      <c r="A42" s="3"/>
+      <c r="B42" s="61" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -5698,7 +5692,7 @@
         <v>18</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -5800,100 +5794,98 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:43" ht="40" hidden="1" customHeight="1">
-      <c r="A43" s="10">
-        <v>39</v>
-      </c>
-      <c r="B43" s="90"/>
+    <row r="43" spans="1:43">
+      <c r="A43" s="10"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="13"/>
-      <c r="I43" s="81" t="s">
-        <v>162</v>
-      </c>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="82"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="82"/>
-      <c r="X43" s="82"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="82"/>
-      <c r="AA43" s="82"/>
-      <c r="AB43" s="82"/>
-      <c r="AC43" s="82"/>
-      <c r="AD43" s="82"/>
-      <c r="AE43" s="82"/>
-      <c r="AF43" s="82"/>
-      <c r="AG43" s="82"/>
-      <c r="AH43" s="82"/>
-      <c r="AI43" s="82"/>
-      <c r="AJ43" s="82"/>
-      <c r="AK43" s="82"/>
-      <c r="AL43" s="82"/>
-      <c r="AM43" s="82"/>
-      <c r="AN43" s="82"/>
+      <c r="I43" s="77" t="s">
+        <v>160</v>
+      </c>
+      <c r="J43" s="78"/>
+      <c r="K43" s="78"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
+      <c r="Q43" s="78"/>
+      <c r="R43" s="78"/>
+      <c r="S43" s="78"/>
+      <c r="T43" s="78"/>
+      <c r="U43" s="78"/>
+      <c r="V43" s="78"/>
+      <c r="W43" s="78"/>
+      <c r="X43" s="78"/>
+      <c r="Y43" s="78"/>
+      <c r="Z43" s="78"/>
+      <c r="AA43" s="78"/>
+      <c r="AB43" s="78"/>
+      <c r="AC43" s="78"/>
+      <c r="AD43" s="78"/>
+      <c r="AE43" s="78"/>
+      <c r="AF43" s="78"/>
+      <c r="AG43" s="78"/>
+      <c r="AH43" s="78"/>
+      <c r="AI43" s="78"/>
+      <c r="AJ43" s="78"/>
+      <c r="AK43" s="78"/>
+      <c r="AL43" s="78"/>
+      <c r="AM43" s="78"/>
+      <c r="AN43" s="78"/>
     </row>
     <row r="44" spans="1:43" ht="40" customHeight="1">
       <c r="A44" s="3">
-        <v>39</v>
-      </c>
-      <c r="B44" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="61" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>27</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="5"/>
-      <c r="I44" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="77"/>
-      <c r="U44" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V44" s="61"/>
-      <c r="W44" s="61"/>
-      <c r="X44" s="61"/>
-      <c r="Y44" s="61"/>
+      <c r="I44" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="69"/>
+      <c r="U44" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V44" s="71"/>
+      <c r="W44" s="71"/>
+      <c r="X44" s="71"/>
+      <c r="Y44" s="71"/>
       <c r="Z44" s="20">
         <v>0</v>
       </c>
@@ -5903,13 +5895,13 @@
       <c r="AB44" s="22">
         <v>1</v>
       </c>
-      <c r="AC44" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD44" s="61"/>
-      <c r="AE44" s="61"/>
-      <c r="AF44" s="61"/>
-      <c r="AG44" s="62"/>
+      <c r="AC44" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD44" s="71"/>
+      <c r="AE44" s="71"/>
+      <c r="AF44" s="71"/>
+      <c r="AG44" s="72"/>
       <c r="AH44" s="20">
         <v>1</v>
       </c>
@@ -5932,52 +5924,52 @@
         <v>1</v>
       </c>
       <c r="AO44" s="48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AP44" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:43" ht="40" customHeight="1">
       <c r="A45" s="6">
-        <v>40</v>
-      </c>
-      <c r="B45" s="89"/>
+        <v>39</v>
+      </c>
+      <c r="B45" s="62"/>
       <c r="C45" s="7" t="s">
-        <v>89</v>
+        <v>197</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="9"/>
-      <c r="I45" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="J45" s="76"/>
-      <c r="K45" s="76"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="76"/>
-      <c r="N45" s="76"/>
-      <c r="O45" s="76"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="76"/>
-      <c r="T45" s="77"/>
-      <c r="U45" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V45" s="61"/>
-      <c r="W45" s="61"/>
-      <c r="X45" s="61"/>
-      <c r="Y45" s="61"/>
+      <c r="I45" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="69"/>
+      <c r="U45" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V45" s="71"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
       <c r="Z45" s="20">
         <v>0</v>
       </c>
@@ -5987,13 +5979,13 @@
       <c r="AB45" s="22">
         <v>0</v>
       </c>
-      <c r="AC45" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD45" s="61"/>
-      <c r="AE45" s="61"/>
-      <c r="AF45" s="61"/>
-      <c r="AG45" s="62"/>
+      <c r="AC45" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD45" s="71"/>
+      <c r="AE45" s="71"/>
+      <c r="AF45" s="71"/>
+      <c r="AG45" s="72"/>
       <c r="AH45" s="20">
         <v>1</v>
       </c>
@@ -6018,44 +6010,44 @@
     </row>
     <row r="46" spans="1:43" ht="40" customHeight="1">
       <c r="A46" s="3">
-        <v>41</v>
-      </c>
-      <c r="B46" s="89"/>
+        <v>40</v>
+      </c>
+      <c r="B46" s="62"/>
       <c r="C46" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="J46" s="76"/>
-      <c r="K46" s="76"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="76"/>
-      <c r="N46" s="76"/>
-      <c r="O46" s="76"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="76"/>
-      <c r="T46" s="77"/>
-      <c r="U46" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V46" s="61"/>
-      <c r="W46" s="61"/>
-      <c r="X46" s="61"/>
-      <c r="Y46" s="61"/>
+      <c r="I46" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="69"/>
+      <c r="U46" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V46" s="71"/>
+      <c r="W46" s="71"/>
+      <c r="X46" s="71"/>
+      <c r="Y46" s="71"/>
       <c r="Z46" s="20">
         <v>0</v>
       </c>
@@ -6065,13 +6057,13 @@
       <c r="AB46" s="22">
         <v>1</v>
       </c>
-      <c r="AC46" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD46" s="61"/>
-      <c r="AE46" s="61"/>
-      <c r="AF46" s="61"/>
-      <c r="AG46" s="62"/>
+      <c r="AC46" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD46" s="71"/>
+      <c r="AE46" s="71"/>
+      <c r="AF46" s="71"/>
+      <c r="AG46" s="72"/>
       <c r="AH46" s="20">
         <v>1</v>
       </c>
@@ -6096,44 +6088,44 @@
     </row>
     <row r="47" spans="1:43" ht="40" customHeight="1">
       <c r="A47" s="6">
-        <v>42</v>
-      </c>
-      <c r="B47" s="89"/>
+        <v>41</v>
+      </c>
+      <c r="B47" s="62"/>
       <c r="C47" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G47" s="8"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="J47" s="76"/>
-      <c r="K47" s="76"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="O47" s="76"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="76"/>
-      <c r="S47" s="76"/>
-      <c r="T47" s="77"/>
-      <c r="U47" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="V47" s="61"/>
-      <c r="W47" s="61"/>
-      <c r="X47" s="61"/>
-      <c r="Y47" s="61"/>
+      <c r="I47" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="69"/>
+      <c r="U47" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="V47" s="71"/>
+      <c r="W47" s="71"/>
+      <c r="X47" s="71"/>
+      <c r="Y47" s="71"/>
       <c r="Z47" s="20">
         <v>1</v>
       </c>
@@ -6143,13 +6135,13 @@
       <c r="AB47" s="22">
         <v>1</v>
       </c>
-      <c r="AC47" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD47" s="61"/>
-      <c r="AE47" s="61"/>
-      <c r="AF47" s="61"/>
-      <c r="AG47" s="62"/>
+      <c r="AC47" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD47" s="71"/>
+      <c r="AE47" s="71"/>
+      <c r="AF47" s="71"/>
+      <c r="AG47" s="72"/>
       <c r="AH47" s="20">
         <v>1</v>
       </c>
@@ -6174,44 +6166,44 @@
     </row>
     <row r="48" spans="1:43" ht="40" customHeight="1">
       <c r="A48" s="3">
-        <v>43</v>
-      </c>
-      <c r="B48" s="89"/>
+        <v>42</v>
+      </c>
+      <c r="B48" s="62"/>
       <c r="C48" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>27</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="76"/>
-      <c r="R48" s="76"/>
-      <c r="S48" s="76"/>
-      <c r="T48" s="77"/>
-      <c r="U48" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="V48" s="61"/>
-      <c r="W48" s="61"/>
-      <c r="X48" s="61"/>
-      <c r="Y48" s="61"/>
+      <c r="I48" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+      <c r="M48" s="68"/>
+      <c r="N48" s="68"/>
+      <c r="O48" s="68"/>
+      <c r="P48" s="68"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="69"/>
+      <c r="U48" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="V48" s="71"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="71"/>
+      <c r="Y48" s="71"/>
       <c r="Z48" s="20">
         <v>1</v>
       </c>
@@ -6221,13 +6213,13 @@
       <c r="AB48" s="22">
         <v>0</v>
       </c>
-      <c r="AC48" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD48" s="61"/>
-      <c r="AE48" s="61"/>
-      <c r="AF48" s="61"/>
-      <c r="AG48" s="62"/>
+      <c r="AC48" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD48" s="71"/>
+      <c r="AE48" s="71"/>
+      <c r="AF48" s="71"/>
+      <c r="AG48" s="72"/>
       <c r="AH48" s="20">
         <v>1</v>
       </c>
@@ -6251,45 +6243,45 @@
       </c>
     </row>
     <row r="49" spans="1:40" ht="40" customHeight="1">
-      <c r="A49" s="6">
-        <v>44</v>
-      </c>
-      <c r="B49" s="90"/>
+      <c r="A49" s="3">
+        <v>43</v>
+      </c>
+      <c r="B49" s="63"/>
       <c r="C49" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>27</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="13"/>
-      <c r="I49" s="75" t="s">
-        <v>197</v>
-      </c>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="76"/>
-      <c r="N49" s="76"/>
-      <c r="O49" s="76"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="76"/>
-      <c r="S49" s="76"/>
-      <c r="T49" s="77"/>
-      <c r="U49" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="V49" s="61"/>
-      <c r="W49" s="61"/>
-      <c r="X49" s="61"/>
-      <c r="Y49" s="61"/>
+      <c r="I49" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="68"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="69"/>
+      <c r="U49" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="V49" s="71"/>
+      <c r="W49" s="71"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="71"/>
       <c r="Z49" s="20">
         <v>1</v>
       </c>
@@ -6299,13 +6291,13 @@
       <c r="AB49" s="22">
         <v>1</v>
       </c>
-      <c r="AC49" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD49" s="61"/>
-      <c r="AE49" s="61"/>
-      <c r="AF49" s="61"/>
-      <c r="AG49" s="62"/>
+      <c r="AC49" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD49" s="71"/>
+      <c r="AE49" s="71"/>
+      <c r="AF49" s="71"/>
+      <c r="AG49" s="72"/>
       <c r="AH49" s="20">
         <v>1</v>
       </c>
@@ -6329,32 +6321,32 @@
       </c>
     </row>
     <row r="50" spans="1:40" ht="40" customHeight="1">
-      <c r="A50" s="91" t="s">
+      <c r="A50" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="93"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="66"/>
     </row>
     <row r="51" spans="1:40" ht="40" customHeight="1">
       <c r="A51" s="3">
-        <v>45</v>
-      </c>
-      <c r="B51" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>27</v>
@@ -6363,7 +6355,7 @@
         <v>28</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I51" s="23">
         <v>0</v>
@@ -6386,20 +6378,20 @@
       <c r="O51" s="22">
         <v>1</v>
       </c>
-      <c r="P51" s="60" t="s">
+      <c r="P51" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="61"/>
-      <c r="T51" s="62"/>
-      <c r="U51" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V51" s="61"/>
-      <c r="W51" s="61"/>
-      <c r="X51" s="61"/>
-      <c r="Y51" s="61"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="72"/>
+      <c r="U51" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V51" s="71"/>
+      <c r="W51" s="71"/>
+      <c r="X51" s="71"/>
+      <c r="Y51" s="71"/>
       <c r="Z51" s="20">
         <v>0</v>
       </c>
@@ -6409,13 +6401,13 @@
       <c r="AB51" s="22">
         <v>0</v>
       </c>
-      <c r="AC51" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD51" s="61"/>
-      <c r="AE51" s="61"/>
-      <c r="AF51" s="61"/>
-      <c r="AG51" s="62"/>
+      <c r="AC51" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD51" s="71"/>
+      <c r="AE51" s="71"/>
+      <c r="AF51" s="71"/>
+      <c r="AG51" s="72"/>
       <c r="AH51" s="20">
         <v>0</v>
       </c>
@@ -6440,17 +6432,17 @@
     </row>
     <row r="52" spans="1:40" ht="40" customHeight="1">
       <c r="A52" s="6">
-        <v>46</v>
-      </c>
-      <c r="B52" s="89"/>
+        <v>45</v>
+      </c>
+      <c r="B52" s="62"/>
       <c r="C52" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F52" s="8" t="s">
         <v>27</v>
@@ -6459,7 +6451,7 @@
         <v>28</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I52" s="23">
         <v>0</v>
@@ -6482,20 +6474,20 @@
       <c r="O52" s="22">
         <v>1</v>
       </c>
-      <c r="P52" s="60" t="s">
+      <c r="P52" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q52" s="61"/>
-      <c r="R52" s="61"/>
-      <c r="S52" s="61"/>
-      <c r="T52" s="62"/>
-      <c r="U52" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V52" s="61"/>
-      <c r="W52" s="61"/>
-      <c r="X52" s="61"/>
-      <c r="Y52" s="61"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V52" s="71"/>
+      <c r="W52" s="71"/>
+      <c r="X52" s="71"/>
+      <c r="Y52" s="71"/>
       <c r="Z52" s="20">
         <v>0</v>
       </c>
@@ -6505,13 +6497,13 @@
       <c r="AB52" s="22">
         <v>1</v>
       </c>
-      <c r="AC52" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD52" s="61"/>
-      <c r="AE52" s="61"/>
-      <c r="AF52" s="61"/>
-      <c r="AG52" s="62"/>
+      <c r="AC52" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD52" s="71"/>
+      <c r="AE52" s="71"/>
+      <c r="AF52" s="71"/>
+      <c r="AG52" s="72"/>
       <c r="AH52" s="20">
         <v>0</v>
       </c>
@@ -6536,27 +6528,27 @@
     </row>
     <row r="53" spans="1:40" ht="40" customHeight="1">
       <c r="A53" s="3">
-        <v>47</v>
-      </c>
-      <c r="B53" s="89"/>
+        <v>46</v>
+      </c>
+      <c r="B53" s="62"/>
       <c r="C53" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E53" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>135</v>
-      </c>
       <c r="I53" s="23">
         <v>0</v>
       </c>
@@ -6578,20 +6570,20 @@
       <c r="O53" s="22">
         <v>1</v>
       </c>
-      <c r="P53" s="60" t="s">
+      <c r="P53" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q53" s="61"/>
-      <c r="R53" s="61"/>
-      <c r="S53" s="61"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V53" s="61"/>
-      <c r="W53" s="61"/>
-      <c r="X53" s="61"/>
-      <c r="Y53" s="61"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="71"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V53" s="71"/>
+      <c r="W53" s="71"/>
+      <c r="X53" s="71"/>
+      <c r="Y53" s="71"/>
       <c r="Z53" s="20">
         <v>0</v>
       </c>
@@ -6601,13 +6593,13 @@
       <c r="AB53" s="22">
         <v>0</v>
       </c>
-      <c r="AC53" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD53" s="61"/>
-      <c r="AE53" s="61"/>
-      <c r="AF53" s="61"/>
-      <c r="AG53" s="62"/>
+      <c r="AC53" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD53" s="71"/>
+      <c r="AE53" s="71"/>
+      <c r="AF53" s="71"/>
+      <c r="AG53" s="72"/>
       <c r="AH53" s="20">
         <v>0</v>
       </c>
@@ -6632,17 +6624,17 @@
     </row>
     <row r="54" spans="1:40" ht="40" customHeight="1">
       <c r="A54" s="6">
-        <v>48</v>
-      </c>
-      <c r="B54" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="B54" s="63"/>
       <c r="C54" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>27</v>
@@ -6651,7 +6643,7 @@
         <v>28</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I54" s="23">
         <v>0</v>
@@ -6674,20 +6666,20 @@
       <c r="O54" s="22">
         <v>1</v>
       </c>
-      <c r="P54" s="60" t="s">
+      <c r="P54" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q54" s="61"/>
-      <c r="R54" s="61"/>
-      <c r="S54" s="61"/>
-      <c r="T54" s="62"/>
-      <c r="U54" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V54" s="61"/>
-      <c r="W54" s="61"/>
-      <c r="X54" s="61"/>
-      <c r="Y54" s="61"/>
+      <c r="Q54" s="71"/>
+      <c r="R54" s="71"/>
+      <c r="S54" s="71"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V54" s="71"/>
+      <c r="W54" s="71"/>
+      <c r="X54" s="71"/>
+      <c r="Y54" s="71"/>
       <c r="Z54" s="20">
         <v>0</v>
       </c>
@@ -6697,13 +6689,13 @@
       <c r="AB54" s="22">
         <v>1</v>
       </c>
-      <c r="AC54" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD54" s="61"/>
-      <c r="AE54" s="61"/>
-      <c r="AF54" s="61"/>
-      <c r="AG54" s="62"/>
+      <c r="AC54" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD54" s="71"/>
+      <c r="AE54" s="71"/>
+      <c r="AF54" s="71"/>
+      <c r="AG54" s="72"/>
       <c r="AH54" s="20">
         <v>0</v>
       </c>
@@ -6728,19 +6720,19 @@
     </row>
     <row r="55" spans="1:40" ht="40" customHeight="1">
       <c r="A55" s="3">
-        <v>49</v>
-      </c>
-      <c r="B55" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="61" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>27</v>
@@ -6749,7 +6741,7 @@
         <v>28</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I55" s="23">
         <v>0</v>
@@ -6772,20 +6764,20 @@
       <c r="O55" s="22">
         <v>1</v>
       </c>
-      <c r="P55" s="60" t="s">
+      <c r="P55" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q55" s="61"/>
-      <c r="R55" s="61"/>
-      <c r="S55" s="61"/>
-      <c r="T55" s="62"/>
-      <c r="U55" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V55" s="61"/>
-      <c r="W55" s="61"/>
-      <c r="X55" s="61"/>
-      <c r="Y55" s="61"/>
+      <c r="Q55" s="71"/>
+      <c r="R55" s="71"/>
+      <c r="S55" s="71"/>
+      <c r="T55" s="72"/>
+      <c r="U55" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V55" s="71"/>
+      <c r="W55" s="71"/>
+      <c r="X55" s="71"/>
+      <c r="Y55" s="71"/>
       <c r="Z55" s="20">
         <v>1</v>
       </c>
@@ -6795,13 +6787,13 @@
       <c r="AB55" s="22">
         <v>0</v>
       </c>
-      <c r="AC55" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD55" s="61"/>
-      <c r="AE55" s="61"/>
-      <c r="AF55" s="61"/>
-      <c r="AG55" s="62"/>
+      <c r="AC55" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD55" s="71"/>
+      <c r="AE55" s="71"/>
+      <c r="AF55" s="71"/>
+      <c r="AG55" s="72"/>
       <c r="AH55" s="20">
         <v>0</v>
       </c>
@@ -6826,17 +6818,17 @@
     </row>
     <row r="56" spans="1:40" ht="40" customHeight="1">
       <c r="A56" s="6">
-        <v>50</v>
-      </c>
-      <c r="B56" s="90"/>
+        <v>49</v>
+      </c>
+      <c r="B56" s="63"/>
       <c r="C56" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>27</v>
@@ -6845,7 +6837,7 @@
         <v>28</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I56" s="23">
         <v>0</v>
@@ -6868,20 +6860,20 @@
       <c r="O56" s="22">
         <v>1</v>
       </c>
-      <c r="P56" s="60" t="s">
+      <c r="P56" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q56" s="61"/>
-      <c r="R56" s="61"/>
-      <c r="S56" s="61"/>
-      <c r="T56" s="62"/>
-      <c r="U56" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V56" s="61"/>
-      <c r="W56" s="61"/>
-      <c r="X56" s="61"/>
-      <c r="Y56" s="61"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71"/>
+      <c r="T56" s="72"/>
+      <c r="U56" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V56" s="71"/>
+      <c r="W56" s="71"/>
+      <c r="X56" s="71"/>
+      <c r="Y56" s="71"/>
       <c r="Z56" s="20">
         <v>1</v>
       </c>
@@ -6891,13 +6883,13 @@
       <c r="AB56" s="22">
         <v>1</v>
       </c>
-      <c r="AC56" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD56" s="61"/>
-      <c r="AE56" s="61"/>
-      <c r="AF56" s="61"/>
-      <c r="AG56" s="62"/>
+      <c r="AC56" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD56" s="71"/>
+      <c r="AE56" s="71"/>
+      <c r="AF56" s="71"/>
+      <c r="AG56" s="72"/>
       <c r="AH56" s="20">
         <v>0</v>
       </c>
@@ -6922,19 +6914,19 @@
     </row>
     <row r="57" spans="1:40" ht="40" customHeight="1">
       <c r="A57" s="3">
-        <v>51</v>
-      </c>
-      <c r="B57" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="61" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>27</v>
@@ -6943,7 +6935,7 @@
         <v>28</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I57" s="23">
         <v>0</v>
@@ -6966,20 +6958,20 @@
       <c r="O57" s="22">
         <v>1</v>
       </c>
-      <c r="P57" s="60" t="s">
+      <c r="P57" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q57" s="61"/>
-      <c r="R57" s="61"/>
-      <c r="S57" s="61"/>
-      <c r="T57" s="62"/>
-      <c r="U57" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V57" s="61"/>
-      <c r="W57" s="61"/>
-      <c r="X57" s="61"/>
-      <c r="Y57" s="61"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="71"/>
+      <c r="T57" s="72"/>
+      <c r="U57" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V57" s="71"/>
+      <c r="W57" s="71"/>
+      <c r="X57" s="71"/>
+      <c r="Y57" s="71"/>
       <c r="Z57" s="20">
         <v>1</v>
       </c>
@@ -6989,13 +6981,13 @@
       <c r="AB57" s="22">
         <v>0</v>
       </c>
-      <c r="AC57" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD57" s="61"/>
-      <c r="AE57" s="61"/>
-      <c r="AF57" s="61"/>
-      <c r="AG57" s="62"/>
+      <c r="AC57" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD57" s="71"/>
+      <c r="AE57" s="71"/>
+      <c r="AF57" s="71"/>
+      <c r="AG57" s="72"/>
       <c r="AH57" s="20">
         <v>0</v>
       </c>
@@ -7020,17 +7012,17 @@
     </row>
     <row r="58" spans="1:40" ht="40" customHeight="1">
       <c r="A58" s="6">
-        <v>52</v>
-      </c>
-      <c r="B58" s="90"/>
+        <v>51</v>
+      </c>
+      <c r="B58" s="63"/>
       <c r="C58" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>27</v>
@@ -7039,7 +7031,7 @@
         <v>28</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I58" s="23">
         <v>0</v>
@@ -7062,20 +7054,20 @@
       <c r="O58" s="22">
         <v>1</v>
       </c>
-      <c r="P58" s="60" t="s">
+      <c r="P58" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q58" s="61"/>
-      <c r="R58" s="61"/>
-      <c r="S58" s="61"/>
-      <c r="T58" s="62"/>
-      <c r="U58" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V58" s="61"/>
-      <c r="W58" s="61"/>
-      <c r="X58" s="61"/>
-      <c r="Y58" s="61"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71"/>
+      <c r="T58" s="72"/>
+      <c r="U58" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V58" s="71"/>
+      <c r="W58" s="71"/>
+      <c r="X58" s="71"/>
+      <c r="Y58" s="71"/>
       <c r="Z58" s="20">
         <v>1</v>
       </c>
@@ -7085,13 +7077,13 @@
       <c r="AB58" s="22">
         <v>1</v>
       </c>
-      <c r="AC58" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD58" s="61"/>
-      <c r="AE58" s="61"/>
-      <c r="AF58" s="61"/>
-      <c r="AG58" s="62"/>
+      <c r="AC58" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD58" s="71"/>
+      <c r="AE58" s="71"/>
+      <c r="AF58" s="71"/>
+      <c r="AG58" s="72"/>
       <c r="AH58" s="20">
         <v>0</v>
       </c>
@@ -7115,33 +7107,33 @@
       </c>
     </row>
     <row r="59" spans="1:40">
-      <c r="A59" s="78" t="s">
-        <v>166</v>
-      </c>
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="80"/>
+      <c r="A59" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="81"/>
       <c r="AN59" s="48"/>
     </row>
     <row r="60" spans="1:40" ht="40" customHeight="1">
       <c r="A60" s="3">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B60" s="53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D60" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F60" s="17" t="s">
         <v>27</v>
@@ -7152,27 +7144,27 @@
       <c r="H60" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I60" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="76"/>
-      <c r="R60" s="76"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="77"/>
-      <c r="U60" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V60" s="61"/>
-      <c r="W60" s="61"/>
-      <c r="X60" s="61"/>
-      <c r="Y60" s="61"/>
+      <c r="I60" s="67" t="s">
+        <v>143</v>
+      </c>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="69"/>
+      <c r="U60" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V60" s="71"/>
+      <c r="W60" s="71"/>
+      <c r="X60" s="71"/>
+      <c r="Y60" s="71"/>
       <c r="Z60" s="20">
         <v>0</v>
       </c>
@@ -7182,13 +7174,13 @@
       <c r="AB60" s="22">
         <v>0</v>
       </c>
-      <c r="AC60" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD60" s="61"/>
-      <c r="AE60" s="61"/>
-      <c r="AF60" s="61"/>
-      <c r="AG60" s="62"/>
+      <c r="AC60" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD60" s="71"/>
+      <c r="AE60" s="71"/>
+      <c r="AF60" s="71"/>
+      <c r="AG60" s="72"/>
       <c r="AH60" s="20">
         <v>0</v>
       </c>
@@ -7213,19 +7205,19 @@
     </row>
     <row r="61" spans="1:40" ht="40" customHeight="1">
       <c r="A61" s="3">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B61" s="53" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D61" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>28</v>
@@ -7236,29 +7228,29 @@
       <c r="H61" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I61" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="J61" s="76"/>
-      <c r="K61" s="76"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="76"/>
-      <c r="N61" s="76"/>
-      <c r="O61" s="76"/>
-      <c r="P61" s="60" t="s">
+      <c r="I61" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="61"/>
-      <c r="S61" s="61"/>
-      <c r="T61" s="62"/>
-      <c r="U61" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V61" s="61"/>
-      <c r="W61" s="61"/>
-      <c r="X61" s="61"/>
-      <c r="Y61" s="61"/>
+      <c r="Q61" s="71"/>
+      <c r="R61" s="71"/>
+      <c r="S61" s="71"/>
+      <c r="T61" s="72"/>
+      <c r="U61" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V61" s="71"/>
+      <c r="W61" s="71"/>
+      <c r="X61" s="71"/>
+      <c r="Y61" s="71"/>
       <c r="Z61" s="20">
         <v>0</v>
       </c>
@@ -7268,13 +7260,13 @@
       <c r="AB61" s="22">
         <v>0</v>
       </c>
-      <c r="AC61" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD61" s="61"/>
-      <c r="AE61" s="61"/>
-      <c r="AF61" s="61"/>
-      <c r="AG61" s="62"/>
+      <c r="AC61" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD61" s="71"/>
+      <c r="AE61" s="71"/>
+      <c r="AF61" s="71"/>
+      <c r="AG61" s="72"/>
       <c r="AH61" s="20">
         <v>0</v>
       </c>
@@ -7299,19 +7291,19 @@
     </row>
     <row r="62" spans="1:40" ht="40" customHeight="1">
       <c r="A62" s="3">
-        <v>55</v>
-      </c>
-      <c r="B62" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="91" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D62" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F62" s="17" t="s">
         <v>27</v>
@@ -7343,32 +7335,32 @@
       <c r="O62" s="22">
         <v>1</v>
       </c>
-      <c r="P62" s="60" t="s">
+      <c r="P62" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q62" s="61"/>
-      <c r="R62" s="61"/>
-      <c r="S62" s="61"/>
-      <c r="T62" s="62"/>
-      <c r="U62" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V62" s="61"/>
-      <c r="W62" s="61"/>
-      <c r="X62" s="61"/>
-      <c r="Y62" s="61"/>
-      <c r="Z62" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA62" s="61"/>
-      <c r="AB62" s="62"/>
-      <c r="AC62" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD62" s="61"/>
-      <c r="AE62" s="61"/>
-      <c r="AF62" s="61"/>
-      <c r="AG62" s="62"/>
+      <c r="Q62" s="71"/>
+      <c r="R62" s="71"/>
+      <c r="S62" s="71"/>
+      <c r="T62" s="72"/>
+      <c r="U62" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V62" s="71"/>
+      <c r="W62" s="71"/>
+      <c r="X62" s="71"/>
+      <c r="Y62" s="71"/>
+      <c r="Z62" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA62" s="71"/>
+      <c r="AB62" s="72"/>
+      <c r="AC62" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD62" s="71"/>
+      <c r="AE62" s="71"/>
+      <c r="AF62" s="71"/>
+      <c r="AG62" s="72"/>
       <c r="AH62" s="20">
         <v>1</v>
       </c>
@@ -7393,17 +7385,17 @@
     </row>
     <row r="63" spans="1:40" ht="40" customHeight="1">
       <c r="A63" s="3">
-        <v>56</v>
-      </c>
-      <c r="B63" s="73"/>
+        <v>55</v>
+      </c>
+      <c r="B63" s="92"/>
       <c r="C63" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F63" s="17" t="s">
         <v>27</v>
@@ -7435,32 +7427,32 @@
       <c r="O63" s="22">
         <v>1</v>
       </c>
-      <c r="P63" s="60" t="s">
+      <c r="P63" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q63" s="61"/>
-      <c r="R63" s="61"/>
-      <c r="S63" s="61"/>
-      <c r="T63" s="62"/>
-      <c r="U63" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V63" s="61"/>
-      <c r="W63" s="61"/>
-      <c r="X63" s="61"/>
-      <c r="Y63" s="61"/>
-      <c r="Z63" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA63" s="61"/>
-      <c r="AB63" s="62"/>
-      <c r="AC63" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD63" s="61"/>
-      <c r="AE63" s="61"/>
-      <c r="AF63" s="61"/>
-      <c r="AG63" s="62"/>
+      <c r="Q63" s="71"/>
+      <c r="R63" s="71"/>
+      <c r="S63" s="71"/>
+      <c r="T63" s="72"/>
+      <c r="U63" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V63" s="71"/>
+      <c r="W63" s="71"/>
+      <c r="X63" s="71"/>
+      <c r="Y63" s="71"/>
+      <c r="Z63" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA63" s="71"/>
+      <c r="AB63" s="72"/>
+      <c r="AC63" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD63" s="71"/>
+      <c r="AE63" s="71"/>
+      <c r="AF63" s="71"/>
+      <c r="AG63" s="72"/>
       <c r="AH63" s="20">
         <v>1</v>
       </c>
@@ -7485,17 +7477,17 @@
     </row>
     <row r="64" spans="1:40" ht="40" customHeight="1">
       <c r="A64" s="3">
-        <v>57</v>
-      </c>
-      <c r="B64" s="73"/>
+        <v>56</v>
+      </c>
+      <c r="B64" s="92"/>
       <c r="C64" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F64" s="17" t="s">
         <v>27</v>
@@ -7527,32 +7519,32 @@
       <c r="O64" s="22">
         <v>1</v>
       </c>
-      <c r="P64" s="60" t="s">
+      <c r="P64" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q64" s="61"/>
-      <c r="R64" s="61"/>
-      <c r="S64" s="61"/>
-      <c r="T64" s="62"/>
-      <c r="U64" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V64" s="61"/>
-      <c r="W64" s="61"/>
-      <c r="X64" s="61"/>
-      <c r="Y64" s="61"/>
-      <c r="Z64" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA64" s="61"/>
-      <c r="AB64" s="62"/>
-      <c r="AC64" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD64" s="61"/>
-      <c r="AE64" s="61"/>
-      <c r="AF64" s="61"/>
-      <c r="AG64" s="62"/>
+      <c r="Q64" s="71"/>
+      <c r="R64" s="71"/>
+      <c r="S64" s="71"/>
+      <c r="T64" s="72"/>
+      <c r="U64" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V64" s="71"/>
+      <c r="W64" s="71"/>
+      <c r="X64" s="71"/>
+      <c r="Y64" s="71"/>
+      <c r="Z64" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA64" s="71"/>
+      <c r="AB64" s="72"/>
+      <c r="AC64" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD64" s="71"/>
+      <c r="AE64" s="71"/>
+      <c r="AF64" s="71"/>
+      <c r="AG64" s="72"/>
       <c r="AH64" s="20">
         <v>1</v>
       </c>
@@ -7577,17 +7569,17 @@
     </row>
     <row r="65" spans="1:40" ht="40" customHeight="1">
       <c r="A65" s="3">
-        <v>58</v>
-      </c>
-      <c r="B65" s="73"/>
+        <v>57</v>
+      </c>
+      <c r="B65" s="92"/>
       <c r="C65" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D65" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F65" s="17" t="s">
         <v>27</v>
@@ -7619,32 +7611,32 @@
       <c r="O65" s="22">
         <v>1</v>
       </c>
-      <c r="P65" s="60" t="s">
+      <c r="P65" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q65" s="61"/>
-      <c r="R65" s="61"/>
-      <c r="S65" s="61"/>
-      <c r="T65" s="62"/>
-      <c r="U65" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V65" s="61"/>
-      <c r="W65" s="61"/>
-      <c r="X65" s="61"/>
-      <c r="Y65" s="61"/>
-      <c r="Z65" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA65" s="61"/>
-      <c r="AB65" s="62"/>
-      <c r="AC65" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD65" s="61"/>
-      <c r="AE65" s="61"/>
-      <c r="AF65" s="61"/>
-      <c r="AG65" s="62"/>
+      <c r="Q65" s="71"/>
+      <c r="R65" s="71"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="72"/>
+      <c r="U65" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V65" s="71"/>
+      <c r="W65" s="71"/>
+      <c r="X65" s="71"/>
+      <c r="Y65" s="71"/>
+      <c r="Z65" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA65" s="71"/>
+      <c r="AB65" s="72"/>
+      <c r="AC65" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD65" s="71"/>
+      <c r="AE65" s="71"/>
+      <c r="AF65" s="71"/>
+      <c r="AG65" s="72"/>
       <c r="AH65" s="20">
         <v>1</v>
       </c>
@@ -7669,17 +7661,17 @@
     </row>
     <row r="66" spans="1:40" ht="40" customHeight="1">
       <c r="A66" s="3">
-        <v>59</v>
-      </c>
-      <c r="B66" s="74"/>
+        <v>58</v>
+      </c>
+      <c r="B66" s="93"/>
       <c r="C66" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>27</v>
@@ -7724,25 +7716,25 @@
       <c r="T66" s="59">
         <v>0</v>
       </c>
-      <c r="U66" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V66" s="61"/>
-      <c r="W66" s="61"/>
-      <c r="X66" s="61"/>
-      <c r="Y66" s="61"/>
-      <c r="Z66" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA66" s="61"/>
-      <c r="AB66" s="62"/>
-      <c r="AC66" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD66" s="61"/>
-      <c r="AE66" s="61"/>
-      <c r="AF66" s="61"/>
-      <c r="AG66" s="62"/>
+      <c r="U66" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V66" s="71"/>
+      <c r="W66" s="71"/>
+      <c r="X66" s="71"/>
+      <c r="Y66" s="71"/>
+      <c r="Z66" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA66" s="71"/>
+      <c r="AB66" s="72"/>
+      <c r="AC66" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD66" s="71"/>
+      <c r="AE66" s="71"/>
+      <c r="AF66" s="71"/>
+      <c r="AG66" s="72"/>
       <c r="AH66" s="20">
         <v>1</v>
       </c>
@@ -7767,19 +7759,19 @@
     </row>
     <row r="67" spans="1:40" ht="40" customHeight="1">
       <c r="A67" s="3">
-        <v>60</v>
-      </c>
-      <c r="B67" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="91" t="s">
         <v>6</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F67" s="17" t="s">
         <v>27</v>
@@ -7811,20 +7803,20 @@
       <c r="O67" s="22">
         <v>1</v>
       </c>
-      <c r="P67" s="60" t="s">
+      <c r="P67" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q67" s="61"/>
-      <c r="R67" s="61"/>
-      <c r="S67" s="61"/>
-      <c r="T67" s="62"/>
-      <c r="U67" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V67" s="61"/>
-      <c r="W67" s="61"/>
-      <c r="X67" s="61"/>
-      <c r="Y67" s="61"/>
+      <c r="Q67" s="71"/>
+      <c r="R67" s="71"/>
+      <c r="S67" s="71"/>
+      <c r="T67" s="72"/>
+      <c r="U67" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V67" s="71"/>
+      <c r="W67" s="71"/>
+      <c r="X67" s="71"/>
+      <c r="Y67" s="71"/>
       <c r="Z67" s="20">
         <v>0</v>
       </c>
@@ -7834,13 +7826,13 @@
       <c r="AB67" s="22">
         <v>0</v>
       </c>
-      <c r="AC67" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD67" s="61"/>
-      <c r="AE67" s="61"/>
-      <c r="AF67" s="61"/>
-      <c r="AG67" s="62"/>
+      <c r="AC67" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD67" s="71"/>
+      <c r="AE67" s="71"/>
+      <c r="AF67" s="71"/>
+      <c r="AG67" s="72"/>
       <c r="AH67" s="20">
         <v>1</v>
       </c>
@@ -7865,17 +7857,17 @@
     </row>
     <row r="68" spans="1:40" ht="40" customHeight="1">
       <c r="A68" s="3">
-        <v>61</v>
-      </c>
-      <c r="B68" s="73"/>
+        <v>60</v>
+      </c>
+      <c r="B68" s="92"/>
       <c r="C68" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>27</v>
@@ -7907,20 +7899,20 @@
       <c r="O68" s="22">
         <v>1</v>
       </c>
-      <c r="P68" s="60" t="s">
+      <c r="P68" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q68" s="61"/>
-      <c r="R68" s="61"/>
-      <c r="S68" s="61"/>
-      <c r="T68" s="62"/>
-      <c r="U68" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V68" s="61"/>
-      <c r="W68" s="61"/>
-      <c r="X68" s="61"/>
-      <c r="Y68" s="61"/>
+      <c r="Q68" s="71"/>
+      <c r="R68" s="71"/>
+      <c r="S68" s="71"/>
+      <c r="T68" s="72"/>
+      <c r="U68" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V68" s="71"/>
+      <c r="W68" s="71"/>
+      <c r="X68" s="71"/>
+      <c r="Y68" s="71"/>
       <c r="Z68" s="20">
         <v>0</v>
       </c>
@@ -7930,13 +7922,13 @@
       <c r="AB68" s="22">
         <v>1</v>
       </c>
-      <c r="AC68" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD68" s="61"/>
-      <c r="AE68" s="61"/>
-      <c r="AF68" s="61"/>
-      <c r="AG68" s="62"/>
+      <c r="AC68" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD68" s="71"/>
+      <c r="AE68" s="71"/>
+      <c r="AF68" s="71"/>
+      <c r="AG68" s="72"/>
       <c r="AH68" s="20">
         <v>1</v>
       </c>
@@ -7961,17 +7953,17 @@
     </row>
     <row r="69" spans="1:40" ht="40" customHeight="1">
       <c r="A69" s="3">
-        <v>62</v>
-      </c>
-      <c r="B69" s="74"/>
+        <v>61</v>
+      </c>
+      <c r="B69" s="93"/>
       <c r="C69" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E69" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F69" s="17" t="s">
         <v>27</v>
@@ -8003,20 +7995,20 @@
       <c r="O69" s="22">
         <v>1</v>
       </c>
-      <c r="P69" s="60" t="s">
+      <c r="P69" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="Q69" s="61"/>
-      <c r="R69" s="61"/>
-      <c r="S69" s="61"/>
-      <c r="T69" s="62"/>
-      <c r="U69" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="61"/>
+      <c r="Q69" s="71"/>
+      <c r="R69" s="71"/>
+      <c r="S69" s="71"/>
+      <c r="T69" s="72"/>
+      <c r="U69" s="70" t="s">
+        <v>28</v>
+      </c>
+      <c r="V69" s="71"/>
+      <c r="W69" s="71"/>
+      <c r="X69" s="71"/>
+      <c r="Y69" s="71"/>
       <c r="Z69" s="20">
         <v>0</v>
       </c>
@@ -8026,13 +8018,13 @@
       <c r="AB69" s="22">
         <v>0</v>
       </c>
-      <c r="AC69" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD69" s="61"/>
-      <c r="AE69" s="61"/>
-      <c r="AF69" s="61"/>
-      <c r="AG69" s="62"/>
+      <c r="AC69" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD69" s="71"/>
+      <c r="AE69" s="71"/>
+      <c r="AF69" s="71"/>
+      <c r="AG69" s="72"/>
       <c r="AH69" s="20">
         <v>1</v>
       </c>
@@ -8064,11 +8056,11 @@
       <c r="H70" s="5"/>
     </row>
     <row r="71" spans="1:40">
-      <c r="Z71" s="63" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA71" s="64"/>
-      <c r="AB71" s="65"/>
+      <c r="Z71" s="82" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA71" s="83"/>
+      <c r="AB71" s="84"/>
       <c r="AC71" s="38"/>
       <c r="AD71" s="36"/>
       <c r="AE71" s="36"/>
@@ -8092,20 +8084,20 @@
       <c r="AB72" s="56">
         <v>0</v>
       </c>
-      <c r="AC72" s="66" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD72" s="67"/>
-      <c r="AE72" s="67"/>
-      <c r="AF72" s="67"/>
-      <c r="AG72" s="67"/>
-      <c r="AH72" s="67"/>
-      <c r="AI72" s="67"/>
-      <c r="AJ72" s="67"/>
-      <c r="AK72" s="67"/>
-      <c r="AL72" s="67"/>
-      <c r="AM72" s="67"/>
-      <c r="AN72" s="68"/>
+      <c r="AC72" s="85" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD72" s="86"/>
+      <c r="AE72" s="86"/>
+      <c r="AF72" s="86"/>
+      <c r="AG72" s="86"/>
+      <c r="AH72" s="86"/>
+      <c r="AI72" s="86"/>
+      <c r="AJ72" s="86"/>
+      <c r="AK72" s="86"/>
+      <c r="AL72" s="86"/>
+      <c r="AM72" s="86"/>
+      <c r="AN72" s="87"/>
     </row>
     <row r="73" spans="1:40">
       <c r="Z73" s="54">
@@ -8117,20 +8109,20 @@
       <c r="AB73" s="56">
         <v>1</v>
       </c>
-      <c r="AC73" s="66" t="s">
-        <v>193</v>
-      </c>
-      <c r="AD73" s="67"/>
-      <c r="AE73" s="67"/>
-      <c r="AF73" s="67"/>
-      <c r="AG73" s="67"/>
-      <c r="AH73" s="67"/>
-      <c r="AI73" s="67"/>
-      <c r="AJ73" s="67"/>
-      <c r="AK73" s="67"/>
-      <c r="AL73" s="67"/>
-      <c r="AM73" s="67"/>
-      <c r="AN73" s="68"/>
+      <c r="AC73" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD73" s="86"/>
+      <c r="AE73" s="86"/>
+      <c r="AF73" s="86"/>
+      <c r="AG73" s="86"/>
+      <c r="AH73" s="86"/>
+      <c r="AI73" s="86"/>
+      <c r="AJ73" s="86"/>
+      <c r="AK73" s="86"/>
+      <c r="AL73" s="86"/>
+      <c r="AM73" s="86"/>
+      <c r="AN73" s="87"/>
     </row>
     <row r="74" spans="1:40">
       <c r="Z74" s="54">
@@ -8142,20 +8134,20 @@
       <c r="AB74" s="56">
         <v>0</v>
       </c>
-      <c r="AC74" s="66" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD74" s="67"/>
-      <c r="AE74" s="67"/>
-      <c r="AF74" s="67"/>
-      <c r="AG74" s="67"/>
-      <c r="AH74" s="67"/>
-      <c r="AI74" s="67"/>
-      <c r="AJ74" s="67"/>
-      <c r="AK74" s="67"/>
-      <c r="AL74" s="67"/>
-      <c r="AM74" s="67"/>
-      <c r="AN74" s="68"/>
+      <c r="AC74" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="AD74" s="86"/>
+      <c r="AE74" s="86"/>
+      <c r="AF74" s="86"/>
+      <c r="AG74" s="86"/>
+      <c r="AH74" s="86"/>
+      <c r="AI74" s="86"/>
+      <c r="AJ74" s="86"/>
+      <c r="AK74" s="86"/>
+      <c r="AL74" s="86"/>
+      <c r="AM74" s="86"/>
+      <c r="AN74" s="87"/>
     </row>
     <row r="75" spans="1:40">
       <c r="Z75" s="54">
@@ -8167,20 +8159,20 @@
       <c r="AB75" s="56">
         <v>1</v>
       </c>
-      <c r="AC75" s="66" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD75" s="67"/>
-      <c r="AE75" s="67"/>
-      <c r="AF75" s="67"/>
-      <c r="AG75" s="67"/>
-      <c r="AH75" s="67"/>
-      <c r="AI75" s="67"/>
-      <c r="AJ75" s="67"/>
-      <c r="AK75" s="67"/>
-      <c r="AL75" s="67"/>
-      <c r="AM75" s="67"/>
-      <c r="AN75" s="68"/>
+      <c r="AC75" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD75" s="86"/>
+      <c r="AE75" s="86"/>
+      <c r="AF75" s="86"/>
+      <c r="AG75" s="86"/>
+      <c r="AH75" s="86"/>
+      <c r="AI75" s="86"/>
+      <c r="AJ75" s="86"/>
+      <c r="AK75" s="86"/>
+      <c r="AL75" s="86"/>
+      <c r="AM75" s="86"/>
+      <c r="AN75" s="87"/>
     </row>
     <row r="76" spans="1:40">
       <c r="Z76" s="40">
@@ -8192,104 +8184,138 @@
       <c r="AB76" s="42">
         <v>0</v>
       </c>
-      <c r="AC76" s="69" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD76" s="70"/>
-      <c r="AE76" s="70"/>
-      <c r="AF76" s="70"/>
-      <c r="AG76" s="70"/>
-      <c r="AH76" s="70"/>
-      <c r="AI76" s="70"/>
-      <c r="AJ76" s="70"/>
-      <c r="AK76" s="70"/>
-      <c r="AL76" s="70"/>
-      <c r="AM76" s="70"/>
-      <c r="AN76" s="71"/>
+      <c r="AC76" s="88" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD76" s="89"/>
+      <c r="AE76" s="89"/>
+      <c r="AF76" s="89"/>
+      <c r="AG76" s="89"/>
+      <c r="AH76" s="89"/>
+      <c r="AI76" s="89"/>
+      <c r="AJ76" s="89"/>
+      <c r="AK76" s="89"/>
+      <c r="AL76" s="89"/>
+      <c r="AM76" s="89"/>
+      <c r="AN76" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="224">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A50:H50"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="I3:T3"/>
-    <mergeCell ref="U3:Y3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="I4:T4"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="I5:T5"/>
-    <mergeCell ref="U5:Y5"/>
-    <mergeCell ref="I6:T6"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="AC4:AG4"/>
-    <mergeCell ref="AC5:AG5"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AC7:AG7"/>
-    <mergeCell ref="U14:Y14"/>
-    <mergeCell ref="AC14:AG14"/>
-    <mergeCell ref="I10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="U10:Y10"/>
-    <mergeCell ref="AC10:AG10"/>
-    <mergeCell ref="I7:T7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="I8:O8"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="AC8:AG8"/>
-    <mergeCell ref="I9:O9"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="AC11:AG11"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="U28:Y28"/>
-    <mergeCell ref="AC28:AG28"/>
-    <mergeCell ref="I27:T27"/>
-    <mergeCell ref="U27:Y27"/>
-    <mergeCell ref="AC27:AG27"/>
-    <mergeCell ref="U15:Y15"/>
-    <mergeCell ref="AC15:AG15"/>
-    <mergeCell ref="U16:Y16"/>
-    <mergeCell ref="AC16:AG16"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="J38:S38"/>
-    <mergeCell ref="U38:AB38"/>
-    <mergeCell ref="P24:T24"/>
-    <mergeCell ref="U24:Y24"/>
-    <mergeCell ref="AC24:AG24"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="U29:Y29"/>
-    <mergeCell ref="AC29:AG29"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="U17:Y17"/>
-    <mergeCell ref="U18:Y18"/>
-    <mergeCell ref="AC17:AG17"/>
-    <mergeCell ref="AC18:AG18"/>
-    <mergeCell ref="I25:T25"/>
-    <mergeCell ref="U25:Y25"/>
-    <mergeCell ref="AC25:AG25"/>
-    <mergeCell ref="I26:T26"/>
-    <mergeCell ref="U26:Y26"/>
-    <mergeCell ref="AC26:AG26"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="U69:Y69"/>
+    <mergeCell ref="AC69:AG69"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="U67:Y67"/>
+    <mergeCell ref="AC67:AG67"/>
+    <mergeCell ref="P68:T68"/>
+    <mergeCell ref="U68:Y68"/>
+    <mergeCell ref="AC68:AG68"/>
+    <mergeCell ref="Z71:AB71"/>
+    <mergeCell ref="AC72:AN72"/>
+    <mergeCell ref="AC73:AN73"/>
+    <mergeCell ref="AC74:AN74"/>
+    <mergeCell ref="AC75:AN75"/>
+    <mergeCell ref="AC76:AN76"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="U60:Y60"/>
+    <mergeCell ref="AC60:AG60"/>
+    <mergeCell ref="I61:O61"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="U62:Y62"/>
+    <mergeCell ref="AC62:AG62"/>
+    <mergeCell ref="Z62:AB62"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="U65:Y65"/>
+    <mergeCell ref="AC65:AG65"/>
+    <mergeCell ref="U66:Y66"/>
+    <mergeCell ref="AC66:AG66"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="U63:Y63"/>
+    <mergeCell ref="AC63:AG63"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="U64:Y64"/>
+    <mergeCell ref="AC64:AG64"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="U61:Y61"/>
+    <mergeCell ref="AC61:AG61"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="U58:Y58"/>
+    <mergeCell ref="AC58:AG58"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="U56:Y56"/>
+    <mergeCell ref="AC56:AG56"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="U57:Y57"/>
+    <mergeCell ref="AC57:AG57"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="U54:Y54"/>
+    <mergeCell ref="AC54:AG54"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="U55:Y55"/>
+    <mergeCell ref="AC55:AG55"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="U52:Y52"/>
+    <mergeCell ref="AC52:AG52"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="U53:Y53"/>
+    <mergeCell ref="AC53:AG53"/>
+    <mergeCell ref="I49:T49"/>
+    <mergeCell ref="U49:Y49"/>
+    <mergeCell ref="AC49:AG49"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="U51:Y51"/>
+    <mergeCell ref="AC51:AG51"/>
+    <mergeCell ref="I47:T47"/>
+    <mergeCell ref="U47:Y47"/>
+    <mergeCell ref="AC47:AG47"/>
+    <mergeCell ref="I48:T48"/>
+    <mergeCell ref="U48:Y48"/>
+    <mergeCell ref="AC48:AG48"/>
+    <mergeCell ref="I45:T45"/>
+    <mergeCell ref="U45:Y45"/>
+    <mergeCell ref="AC45:AG45"/>
+    <mergeCell ref="I46:T46"/>
+    <mergeCell ref="U46:Y46"/>
+    <mergeCell ref="AC46:AG46"/>
+    <mergeCell ref="I40:AN40"/>
+    <mergeCell ref="I41:AN41"/>
+    <mergeCell ref="I43:AN43"/>
+    <mergeCell ref="I44:T44"/>
+    <mergeCell ref="U44:Y44"/>
+    <mergeCell ref="AC44:AG44"/>
+    <mergeCell ref="J36:O36"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="U36:Y36"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="U37:Y37"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="J34:O34"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="U34:Y34"/>
+    <mergeCell ref="AC34:AF34"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="U35:Y35"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="J33:O33"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="U33:Y33"/>
+    <mergeCell ref="AC33:AF33"/>
+    <mergeCell ref="I30:T30"/>
+    <mergeCell ref="U30:Y30"/>
+    <mergeCell ref="AC30:AG30"/>
+    <mergeCell ref="I31:T31"/>
+    <mergeCell ref="U31:Y31"/>
+    <mergeCell ref="AC31:AG31"/>
     <mergeCell ref="AP38:AP39"/>
     <mergeCell ref="I19:T19"/>
     <mergeCell ref="U19:Y19"/>
@@ -8314,125 +8340,91 @@
     <mergeCell ref="U39:Y39"/>
     <mergeCell ref="AC39:AG39"/>
     <mergeCell ref="AC38:AG38"/>
+    <mergeCell ref="J38:S38"/>
+    <mergeCell ref="U38:AB38"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="U24:Y24"/>
+    <mergeCell ref="AC24:AG24"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="U29:Y29"/>
+    <mergeCell ref="AC29:AG29"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="U17:Y17"/>
+    <mergeCell ref="U18:Y18"/>
+    <mergeCell ref="AC17:AG17"/>
+    <mergeCell ref="AC18:AG18"/>
+    <mergeCell ref="I25:T25"/>
+    <mergeCell ref="U25:Y25"/>
+    <mergeCell ref="AC25:AG25"/>
+    <mergeCell ref="I26:T26"/>
+    <mergeCell ref="U26:Y26"/>
+    <mergeCell ref="AC26:AG26"/>
     <mergeCell ref="J32:O32"/>
     <mergeCell ref="P32:T32"/>
     <mergeCell ref="U32:Y32"/>
     <mergeCell ref="AC32:AF32"/>
-    <mergeCell ref="J33:O33"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="U33:Y33"/>
-    <mergeCell ref="AC33:AF33"/>
-    <mergeCell ref="I30:T30"/>
-    <mergeCell ref="U30:Y30"/>
-    <mergeCell ref="AC30:AG30"/>
-    <mergeCell ref="I31:T31"/>
-    <mergeCell ref="U31:Y31"/>
-    <mergeCell ref="AC31:AG31"/>
-    <mergeCell ref="J36:O36"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="U36:Y36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="U37:Y37"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="J34:O34"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="U34:Y34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="U35:Y35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="I45:T45"/>
-    <mergeCell ref="U45:Y45"/>
-    <mergeCell ref="AC45:AG45"/>
-    <mergeCell ref="I46:T46"/>
-    <mergeCell ref="U46:Y46"/>
-    <mergeCell ref="AC46:AG46"/>
-    <mergeCell ref="I40:AN40"/>
-    <mergeCell ref="I41:AN41"/>
-    <mergeCell ref="I43:AN43"/>
-    <mergeCell ref="I44:T44"/>
-    <mergeCell ref="U44:Y44"/>
-    <mergeCell ref="AC44:AG44"/>
-    <mergeCell ref="I49:T49"/>
-    <mergeCell ref="U49:Y49"/>
-    <mergeCell ref="AC49:AG49"/>
-    <mergeCell ref="P51:T51"/>
-    <mergeCell ref="U51:Y51"/>
-    <mergeCell ref="AC51:AG51"/>
-    <mergeCell ref="I47:T47"/>
-    <mergeCell ref="U47:Y47"/>
-    <mergeCell ref="AC47:AG47"/>
-    <mergeCell ref="I48:T48"/>
-    <mergeCell ref="U48:Y48"/>
-    <mergeCell ref="AC48:AG48"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="U54:Y54"/>
-    <mergeCell ref="AC54:AG54"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="U55:Y55"/>
-    <mergeCell ref="AC55:AG55"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="U52:Y52"/>
-    <mergeCell ref="AC52:AG52"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="U53:Y53"/>
-    <mergeCell ref="AC53:AG53"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="U58:Y58"/>
-    <mergeCell ref="AC58:AG58"/>
-    <mergeCell ref="A59:H59"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="U56:Y56"/>
-    <mergeCell ref="AC56:AG56"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="U57:Y57"/>
-    <mergeCell ref="AC57:AG57"/>
-    <mergeCell ref="AC66:AG66"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="U63:Y63"/>
-    <mergeCell ref="AC63:AG63"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="U64:Y64"/>
-    <mergeCell ref="AC64:AG64"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="U61:Y61"/>
-    <mergeCell ref="AC61:AG61"/>
-    <mergeCell ref="Z71:AB71"/>
-    <mergeCell ref="AC72:AN72"/>
-    <mergeCell ref="AC73:AN73"/>
-    <mergeCell ref="AC74:AN74"/>
-    <mergeCell ref="AC75:AN75"/>
-    <mergeCell ref="AC76:AN76"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="U60:Y60"/>
-    <mergeCell ref="AC60:AG60"/>
-    <mergeCell ref="I61:O61"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="U62:Y62"/>
-    <mergeCell ref="AC62:AG62"/>
-    <mergeCell ref="Z62:AB62"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="U65:Y65"/>
-    <mergeCell ref="AC65:AG65"/>
-    <mergeCell ref="U66:Y66"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="U69:Y69"/>
-    <mergeCell ref="AC69:AG69"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="U67:Y67"/>
-    <mergeCell ref="AC67:AG67"/>
-    <mergeCell ref="P68:T68"/>
-    <mergeCell ref="U68:Y68"/>
-    <mergeCell ref="AC68:AG68"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="U28:Y28"/>
+    <mergeCell ref="AC28:AG28"/>
+    <mergeCell ref="I27:T27"/>
+    <mergeCell ref="U27:Y27"/>
+    <mergeCell ref="AC27:AG27"/>
+    <mergeCell ref="U15:Y15"/>
+    <mergeCell ref="AC15:AG15"/>
+    <mergeCell ref="U16:Y16"/>
+    <mergeCell ref="AC16:AG16"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="AC7:AG7"/>
+    <mergeCell ref="U14:Y14"/>
+    <mergeCell ref="AC14:AG14"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="AC10:AG10"/>
+    <mergeCell ref="I7:T7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="AC8:AG8"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="U9:Y9"/>
+    <mergeCell ref="AC9:AG9"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="U11:Y11"/>
+    <mergeCell ref="AC11:AG11"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="I3:T3"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="I4:T4"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="I5:T5"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="I6:T6"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="AC4:AG4"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A50:H50"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
